--- a/CdS_Mastodon/lib/toots/toots_CdS_7.xlsx
+++ b/CdS_Mastodon/lib/toots/toots_CdS_7.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>09:41:04</t>
+          <t>12:29:30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>19:00:50</t>
+          <t>12:18:47</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17:17:03</t>
+          <t>19:38:26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09:48:33</t>
+          <t>19:00:33</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14:40:00</t>
+          <t>09:07:09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:40:04</t>
+          <t>09:21:56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12:19:44</t>
+          <t>10:21:15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>08:54:05</t>
+          <t>08:51:20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>17:42:44</t>
+          <t>11:58:43</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>19:17:54</t>
+          <t>19:11:43</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11:40:54</t>
+          <t>18:03:08</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17:51:39</t>
+          <t>09:33:31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>08:39:25</t>
+          <t>11:43:48</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15:40:49</t>
+          <t>16:36:54</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09:30:31</t>
+          <t>18:18:33</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14:44:01</t>
+          <t>13:31:06</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15:53:57</t>
+          <t>10:41:40</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -927,7 +927,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:53:08</t>
+          <t>15:08:18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11:25:26</t>
+          <t>17:44:33</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13:37:46</t>
+          <t>18:17:23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12:33:48</t>
+          <t>17:14:57</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>08:03:58</t>
+          <t>08:09:51</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>08:16:18</t>
+          <t>13:40:16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>08:15:31</t>
+          <t>17:10:46</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>14:11:57</t>
+          <t>14:19:03</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>09:16:25</t>
+          <t>11:54:54</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11:06:27</t>
+          <t>14:34:27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>17:24:06</t>
+          <t>08:21:51</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>15:46:22</t>
+          <t>13:43:52</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10:09:09</t>
+          <t>19:08:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>19:38:24</t>
+          <t>15:41:32</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11:32:12</t>
+          <t>18:21:10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>13:30:26</t>
+          <t>10:58:46</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>17:58:45</t>
+          <t>13:38:45</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13:29:16</t>
+          <t>10:46:20</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>19:58:08</t>
+          <t>13:53:45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>08:08:19</t>
+          <t>15:25:57</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16:46:16</t>
+          <t>08:08:22</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>14:08:39</t>
+          <t>18:01:32</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>17:09:31</t>
+          <t>11:05:33</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11:53:53</t>
+          <t>09:12:24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>09:15:34</t>
+          <t>15:44:57</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>12:13:57</t>
+          <t>10:56:07</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>14:43:14</t>
+          <t>09:48:52</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10:14:28</t>
+          <t>09:55:13</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>15:10:36</t>
+          <t>16:30:51</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>13:43:43</t>
+          <t>13:10:36</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12:22:03</t>
+          <t>11:15:01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11:19:13</t>
+          <t>15:41:04</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15:07:04</t>
+          <t>16:43:36</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>10:16:55</t>
+          <t>10:44:27</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>18:28:49</t>
+          <t>12:11:56</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>17:21:20</t>
+          <t>18:29:26</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>13:21:41</t>
+          <t>12:35:41</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16:05:32</t>
+          <t>13:32:24</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>08:10:07</t>
+          <t>08:05:38</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12:10:00</t>
+          <t>15:58:56</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>18:03:53</t>
+          <t>17:18:20</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11:35:06</t>
+          <t>14:17:36</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>14:49:37</t>
+          <t>12:29:47</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11:32:50</t>
+          <t>19:06:00</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>08:32:08</t>
+          <t>14:46:35</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>08:36:12</t>
+          <t>09:29:38</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>12:21:06</t>
+          <t>10:05:35</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>08:37:45</t>
+          <t>19:20:50</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>10:40:31</t>
+          <t>10:30:19</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>17:13:47</t>
+          <t>11:28:13</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>17:31:44</t>
+          <t>12:19:01</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2304,7 +2304,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>09:53:49</t>
+          <t>17:00:51</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>14:34:38</t>
+          <t>13:38:03</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>18:32:29</t>
+          <t>17:52:21</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
